--- a/output/acs/hhinc_120ami_pumas_21.xlsx
+++ b/output/acs/hhinc_120ami_pumas_21.xlsx
@@ -553,55 +553,55 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>8.954745126623308</v>
+        <v>7.930940619036261</v>
       </c>
       <c r="D4">
         <v>8.865187634663844</v>
       </c>
       <c r="E4">
-        <v>8.305772135526043</v>
+        <v>7.553053299831482</v>
       </c>
       <c r="F4">
-        <v>7.060171338804556</v>
+        <v>7.326393361837644</v>
       </c>
       <c r="G4">
-        <v>1.845912204933296</v>
+        <v>1.886066833004872</v>
       </c>
       <c r="H4">
         <v>8.118225960176014</v>
       </c>
       <c r="I4">
-        <v>557.3305761692292</v>
+        <v>612.2915619835455</v>
       </c>
       <c r="J4">
         <v>782.534859819756</v>
       </c>
       <c r="K4">
-        <v>1039.722507010885</v>
+        <v>1077.735343165821</v>
       </c>
       <c r="L4">
-        <v>729.046805612901</v>
+        <v>666.3318148940511</v>
       </c>
       <c r="M4">
-        <v>2039.942589320684</v>
+        <v>2046.295120074479</v>
       </c>
       <c r="N4">
         <v>749.9916988686442</v>
       </c>
       <c r="O4">
-        <v>2300</v>
+        <v>2853</v>
       </c>
       <c r="P4">
         <v>3262</v>
       </c>
       <c r="Q4">
-        <v>4626</v>
+        <v>5273</v>
       </c>
       <c r="R4">
-        <v>3816</v>
+        <v>3361</v>
       </c>
       <c r="S4">
-        <v>40839</v>
+        <v>40094</v>
       </c>
       <c r="T4">
         <v>3414</v>
@@ -615,55 +615,55 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>7.342166026253445</v>
+        <v>6.453946755704703</v>
       </c>
       <c r="D5">
-        <v>7.651488849460418</v>
+        <v>7.338969395720954</v>
       </c>
       <c r="E5">
-        <v>7.088665221849008</v>
+        <v>6.930927778565672</v>
       </c>
       <c r="F5">
-        <v>8.461461158239759</v>
+        <v>7.840724376888172</v>
       </c>
       <c r="G5">
-        <v>2.704286547527287</v>
+        <v>2.750605864120786</v>
       </c>
       <c r="H5">
         <v>10.96868932048835</v>
       </c>
       <c r="I5">
-        <v>747.8347126696848</v>
+        <v>670.4637393401674</v>
       </c>
       <c r="J5">
-        <v>864.2317135525635</v>
+        <v>852.9627186064465</v>
       </c>
       <c r="K5">
-        <v>937.4294863508402</v>
+        <v>957.2686664953316</v>
       </c>
       <c r="L5">
-        <v>756.0564777225641</v>
+        <v>744.2992420634661</v>
       </c>
       <c r="M5">
-        <v>1774.290033977147</v>
+        <v>1758.606809318992</v>
       </c>
       <c r="N5">
         <v>818.9138960347113</v>
       </c>
       <c r="O5">
-        <v>3764</v>
+        <v>3839</v>
       </c>
       <c r="P5">
-        <v>4174</v>
+        <v>4295</v>
       </c>
       <c r="Q5">
-        <v>4887</v>
+        <v>5104</v>
       </c>
       <c r="R5">
-        <v>3302</v>
+        <v>3508</v>
       </c>
       <c r="S5">
-        <v>24246</v>
+        <v>23627</v>
       </c>
       <c r="T5">
         <v>2759</v>
@@ -677,58 +677,58 @@
         <v>13</v>
       </c>
       <c r="C6">
-        <v>7.979853891602132</v>
+        <v>8.286370276663405</v>
       </c>
       <c r="D6">
-        <v>7.759594742188574</v>
+        <v>7.545359453737769</v>
       </c>
       <c r="E6">
-        <v>5.804873837142911</v>
+        <v>5.54911435193518</v>
       </c>
       <c r="F6">
-        <v>6.454361296556535</v>
+        <v>6.293864547770776</v>
       </c>
       <c r="G6">
-        <v>3.233330933160881</v>
+        <v>3.158487382454627</v>
       </c>
       <c r="H6">
-        <v>7.025547775721774</v>
+        <v>6.988937587585244</v>
       </c>
       <c r="I6">
-        <v>909.9578491127349</v>
+        <v>909.4819551879519</v>
       </c>
       <c r="J6">
-        <v>1021.116077525286</v>
+        <v>1041.11031779268</v>
       </c>
       <c r="K6">
-        <v>1276.75710918057</v>
+        <v>1270.957808777498</v>
       </c>
       <c r="L6">
-        <v>776.5233782032901</v>
+        <v>865.0225109462471</v>
       </c>
       <c r="M6">
-        <v>1751.382278318864</v>
+        <v>1617.851374098723</v>
       </c>
       <c r="N6">
-        <v>1126.229881168805</v>
+        <v>1128.115106184316</v>
       </c>
       <c r="O6">
-        <v>4214</v>
+        <v>4056</v>
       </c>
       <c r="P6">
-        <v>4863</v>
+        <v>5099</v>
       </c>
       <c r="Q6">
-        <v>8128</v>
+        <v>8464</v>
       </c>
       <c r="R6">
-        <v>4446</v>
+        <v>5079</v>
       </c>
       <c r="S6">
-        <v>20017</v>
+        <v>18929</v>
       </c>
       <c r="T6">
-        <v>5924</v>
+        <v>5965</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -739,58 +739,58 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>11.55473747359642</v>
+        <v>11.34680554582803</v>
       </c>
       <c r="D7">
-        <v>6.708512056660358</v>
+        <v>6.917724700063349</v>
       </c>
       <c r="E7">
-        <v>5.909933655587807</v>
+        <v>5.440685926405861</v>
       </c>
       <c r="F7">
-        <v>6.944684036105363</v>
+        <v>7.600760348137298</v>
       </c>
       <c r="G7">
-        <v>3.55040742382776</v>
+        <v>3.898380197353963</v>
       </c>
       <c r="H7">
-        <v>7.149745220216544</v>
+        <v>7.158460158467935</v>
       </c>
       <c r="I7">
-        <v>720.713765279341</v>
+        <v>842.2310038582052</v>
       </c>
       <c r="J7">
-        <v>1247.320205942524</v>
+        <v>1315.796184138856</v>
       </c>
       <c r="K7">
-        <v>1591.406532208222</v>
+        <v>1538.809510645933</v>
       </c>
       <c r="L7">
-        <v>885.5020637179509</v>
+        <v>874.5448765958212</v>
       </c>
       <c r="M7">
-        <v>1449.386129833722</v>
+        <v>1516.224194536588</v>
       </c>
       <c r="N7">
-        <v>993.8753888308887</v>
+        <v>1009.808778196088</v>
       </c>
       <c r="O7">
-        <v>2305</v>
+        <v>2743</v>
       </c>
       <c r="P7">
-        <v>6871</v>
+        <v>7029</v>
       </c>
       <c r="Q7">
-        <v>9951</v>
+        <v>10452</v>
       </c>
       <c r="R7">
-        <v>4712</v>
+        <v>4252</v>
       </c>
       <c r="S7">
-        <v>15086</v>
+        <v>14373</v>
       </c>
       <c r="T7">
-        <v>5137</v>
+        <v>5213</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -801,55 +801,55 @@
         <v>15</v>
       </c>
       <c r="C8">
-        <v>7.153125767950145</v>
+        <v>6.698238352477012</v>
       </c>
       <c r="D8">
-        <v>6.625095332897407</v>
+        <v>6.812998503237917</v>
       </c>
       <c r="E8">
-        <v>5.073157771328471</v>
+        <v>5.077273391747632</v>
       </c>
       <c r="F8">
-        <v>5.409731713352981</v>
+        <v>5.385706645346041</v>
       </c>
       <c r="G8">
-        <v>3.182674019320635</v>
+        <v>3.231138995295584</v>
       </c>
       <c r="H8">
         <v>5.687295524652254</v>
       </c>
       <c r="I8">
-        <v>944.792578594966</v>
+        <v>870.0288210125572</v>
       </c>
       <c r="J8">
-        <v>1065.620918677228</v>
+        <v>1161.292727864889</v>
       </c>
       <c r="K8">
-        <v>1278.49718543736</v>
+        <v>1279.671763903248</v>
       </c>
       <c r="L8">
-        <v>766.1984170488249</v>
+        <v>871.9538538381058</v>
       </c>
       <c r="M8">
-        <v>1652.546441465791</v>
+        <v>1588.177132309633</v>
       </c>
       <c r="N8">
         <v>941.0962907787386</v>
       </c>
       <c r="O8">
-        <v>4881</v>
+        <v>4800</v>
       </c>
       <c r="P8">
-        <v>5944</v>
+        <v>6299</v>
       </c>
       <c r="Q8">
-        <v>9313</v>
+        <v>9314</v>
       </c>
       <c r="R8">
-        <v>5234</v>
+        <v>5983</v>
       </c>
       <c r="S8">
-        <v>19188</v>
+        <v>18164</v>
       </c>
       <c r="T8">
         <v>6115</v>
@@ -863,55 +863,55 @@
         <v>16</v>
       </c>
       <c r="C9">
-        <v>8.243498464283414</v>
+        <v>8.102353151090719</v>
       </c>
       <c r="D9">
-        <v>9.373494780818595</v>
+        <v>7.909416533326747</v>
       </c>
       <c r="E9">
-        <v>5.674154463393965</v>
+        <v>6.530117713407674</v>
       </c>
       <c r="F9">
-        <v>7.944768672098999</v>
+        <v>7.637212192785165</v>
       </c>
       <c r="G9">
-        <v>2.871559983734508</v>
+        <v>2.92417394931887</v>
       </c>
       <c r="H9">
         <v>7.211993286030715</v>
       </c>
       <c r="I9">
-        <v>1054.23415715746</v>
+        <v>1071.702318676052</v>
       </c>
       <c r="J9">
-        <v>787.5804932029171</v>
+        <v>838.3585995179062</v>
       </c>
       <c r="K9">
-        <v>1318.943289152106</v>
+        <v>1467.0183414259</v>
       </c>
       <c r="L9">
-        <v>1002.486369579095</v>
+        <v>965.1249486899351</v>
       </c>
       <c r="M9">
-        <v>1736.165743046837</v>
+        <v>1713.140211126012</v>
       </c>
       <c r="N9">
         <v>896.1671033336919</v>
       </c>
       <c r="O9">
-        <v>4726</v>
+        <v>4888</v>
       </c>
       <c r="P9">
-        <v>3105</v>
+        <v>3917</v>
       </c>
       <c r="Q9">
-        <v>8590</v>
+        <v>8302</v>
       </c>
       <c r="R9">
-        <v>4663</v>
+        <v>4670</v>
       </c>
       <c r="S9">
-        <v>22343</v>
+        <v>21650</v>
       </c>
       <c r="T9">
         <v>4592</v>
@@ -925,58 +925,58 @@
         <v>17</v>
       </c>
       <c r="C10">
-        <v>6.990278291248346</v>
+        <v>6.159587937828308</v>
       </c>
       <c r="D10">
-        <v>6.709657851145892</v>
+        <v>6.493975250128835</v>
       </c>
       <c r="E10">
-        <v>5.834463255894859</v>
+        <v>5.625607024956223</v>
       </c>
       <c r="F10">
-        <v>5.592681999544561</v>
+        <v>6.089196613327917</v>
       </c>
       <c r="G10">
-        <v>3.332882463014702</v>
+        <v>3.614380221465146</v>
       </c>
       <c r="H10">
-        <v>5.155034799837733</v>
+        <v>5.151657238373645</v>
       </c>
       <c r="I10">
-        <v>750.0141587884358</v>
+        <v>781.0624307717821</v>
       </c>
       <c r="J10">
-        <v>1201.415729839436</v>
+        <v>1161.214547581271</v>
       </c>
       <c r="K10">
-        <v>1231.479867698565</v>
+        <v>1278.278101977911</v>
       </c>
       <c r="L10">
-        <v>1011.401030281448</v>
+        <v>1051.924766074671</v>
       </c>
       <c r="M10">
-        <v>1368.341934866108</v>
+        <v>1369.088841365855</v>
       </c>
       <c r="N10">
-        <v>1278.067211912435</v>
+        <v>1300.092268350116</v>
       </c>
       <c r="O10">
-        <v>3965</v>
+        <v>4686</v>
       </c>
       <c r="P10">
-        <v>6617</v>
+        <v>6608</v>
       </c>
       <c r="Q10">
-        <v>7800</v>
+        <v>8397</v>
       </c>
       <c r="R10">
-        <v>6683</v>
+        <v>6384</v>
       </c>
       <c r="S10">
-        <v>15172</v>
+        <v>13998</v>
       </c>
       <c r="T10">
-        <v>9162</v>
+        <v>9326</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -987,58 +987,58 @@
         <v>18</v>
       </c>
       <c r="C11">
-        <v>8.587333283603165</v>
+        <v>7.93547767044266</v>
       </c>
       <c r="D11">
-        <v>9.218694395493044</v>
+        <v>8.966435282421688</v>
       </c>
       <c r="E11">
-        <v>5.284241254701108</v>
+        <v>5.137363478728665</v>
       </c>
       <c r="F11">
-        <v>9.97930219147695</v>
+        <v>8.78801706335666</v>
       </c>
       <c r="G11">
-        <v>3.870391051613137</v>
+        <v>4.020173718765106</v>
       </c>
       <c r="H11">
-        <v>4.847181830174164</v>
+        <v>4.900692331722483</v>
       </c>
       <c r="I11">
-        <v>763.8178920978154</v>
+        <v>733.9676809207951</v>
       </c>
       <c r="J11">
-        <v>891.321205330884</v>
+        <v>934.3834583322846</v>
       </c>
       <c r="K11">
-        <v>970.2067546639867</v>
+        <v>900.1437519873562</v>
       </c>
       <c r="L11">
-        <v>808.2369394958541</v>
+        <v>788.0888809800422</v>
       </c>
       <c r="M11">
-        <v>1315.246425648536</v>
+        <v>1296.413557291085</v>
       </c>
       <c r="N11">
-        <v>818.0820433722556</v>
+        <v>856.4209515455877</v>
       </c>
       <c r="O11">
-        <v>3287</v>
+        <v>3418</v>
       </c>
       <c r="P11">
-        <v>3573</v>
+        <v>3851</v>
       </c>
       <c r="Q11">
-        <v>6785</v>
+        <v>6475</v>
       </c>
       <c r="R11">
-        <v>2993</v>
+        <v>3314</v>
       </c>
       <c r="S11">
-        <v>12558</v>
+        <v>11917</v>
       </c>
       <c r="T11">
-        <v>6237</v>
+        <v>6458</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1049,58 +1049,58 @@
         <v>19</v>
       </c>
       <c r="C12">
-        <v>9.139676633014519</v>
+        <v>7.962953994620851</v>
       </c>
       <c r="D12">
-        <v>11.13858993448757</v>
+        <v>11.51491146217185</v>
       </c>
       <c r="E12">
-        <v>7.790798124319866</v>
+        <v>7.768447247073635</v>
       </c>
       <c r="F12">
-        <v>10.12992636376787</v>
+        <v>9.625970725614478</v>
       </c>
       <c r="G12">
-        <v>2.286530451907895</v>
+        <v>2.346529664542398</v>
       </c>
       <c r="H12">
-        <v>8.966954785558745</v>
+        <v>8.62503642710859</v>
       </c>
       <c r="I12">
-        <v>601.4869449679478</v>
+        <v>777.4501292052436</v>
       </c>
       <c r="J12">
-        <v>560.3268195626995</v>
+        <v>553.0835796372687</v>
       </c>
       <c r="K12">
-        <v>1105.334214339435</v>
+        <v>1114.565892722644</v>
       </c>
       <c r="L12">
-        <v>774.6584285154329</v>
+        <v>787.6950711672949</v>
       </c>
       <c r="M12">
-        <v>1645.170063646727</v>
+        <v>1594.172737884959</v>
       </c>
       <c r="N12">
-        <v>950.6950138083191</v>
+        <v>945.7191412894474</v>
       </c>
       <c r="O12">
-        <v>2432</v>
+        <v>3608</v>
       </c>
       <c r="P12">
-        <v>1859</v>
+        <v>1775</v>
       </c>
       <c r="Q12">
-        <v>5243</v>
+        <v>5302</v>
       </c>
       <c r="R12">
-        <v>2826</v>
+        <v>3024</v>
       </c>
       <c r="S12">
-        <v>26589</v>
+        <v>25106</v>
       </c>
       <c r="T12">
-        <v>3918</v>
+        <v>4052</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1111,58 +1111,58 @@
         <v>20</v>
       </c>
       <c r="C13">
-        <v>8.282219295027016</v>
+        <v>9.038376312908088</v>
       </c>
       <c r="D13">
-        <v>7.95849091327066</v>
+        <v>7.892266140276846</v>
       </c>
       <c r="E13">
-        <v>5.826249374067085</v>
+        <v>5.662384705670644</v>
       </c>
       <c r="F13">
-        <v>8.13303480231507</v>
+        <v>8.321738152524546</v>
       </c>
       <c r="G13">
-        <v>3.468965802538647</v>
+        <v>3.588084071011189</v>
       </c>
       <c r="H13">
-        <v>6.659537349677764</v>
+        <v>6.571832361373961</v>
       </c>
       <c r="I13">
-        <v>893.3380337675236</v>
+        <v>1057.077883169566</v>
       </c>
       <c r="J13">
-        <v>979.8823294980373</v>
+        <v>1034.089936330189</v>
       </c>
       <c r="K13">
-        <v>1511.16884392678</v>
+        <v>1550.948973895499</v>
       </c>
       <c r="L13">
-        <v>1253.806897688246</v>
+        <v>1228.627445777146</v>
       </c>
       <c r="M13">
-        <v>1339.634209197608</v>
+        <v>1285.918922057297</v>
       </c>
       <c r="N13">
-        <v>1024.306509800655</v>
+        <v>1029.133614063305</v>
       </c>
       <c r="O13">
-        <v>3986</v>
+        <v>4322</v>
       </c>
       <c r="P13">
-        <v>4550</v>
+        <v>4842</v>
       </c>
       <c r="Q13">
-        <v>9585</v>
+        <v>10122</v>
       </c>
       <c r="R13">
-        <v>5697</v>
+        <v>5456</v>
       </c>
       <c r="S13">
-        <v>14271</v>
+        <v>13244</v>
       </c>
       <c r="T13">
-        <v>5684</v>
+        <v>5787</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1173,58 +1173,58 @@
         <v>21</v>
       </c>
       <c r="C14">
-        <v>9.771899470506666</v>
+        <v>9.289086165689032</v>
       </c>
       <c r="D14">
-        <v>7.659106947665598</v>
+        <v>7.766873063275074</v>
       </c>
       <c r="E14">
-        <v>5.567674641186232</v>
+        <v>5.649760504561295</v>
       </c>
       <c r="F14">
-        <v>7.911185215419049</v>
+        <v>7.251448413622407</v>
       </c>
       <c r="G14">
-        <v>6.414181794402975</v>
+        <v>6.866606567038525</v>
       </c>
       <c r="H14">
-        <v>7.484206394463752</v>
+        <v>7.273299771811065</v>
       </c>
       <c r="I14">
-        <v>884.2540626108256</v>
+        <v>815.1766752666259</v>
       </c>
       <c r="J14">
-        <v>1036.28674390284</v>
+        <v>1148.598324019324</v>
       </c>
       <c r="K14">
-        <v>1200.028148303458</v>
+        <v>1164.21113984642</v>
       </c>
       <c r="L14">
-        <v>748.4189594404995</v>
+        <v>724.6626436099422</v>
       </c>
       <c r="M14">
-        <v>1165.17113316108</v>
+        <v>1170.987793421648</v>
       </c>
       <c r="N14">
-        <v>996.2179962459899</v>
+        <v>1007.50781065862</v>
       </c>
       <c r="O14">
-        <v>3344</v>
+        <v>3243</v>
       </c>
       <c r="P14">
-        <v>5000</v>
+        <v>5465</v>
       </c>
       <c r="Q14">
-        <v>7965</v>
+        <v>7615</v>
       </c>
       <c r="R14">
-        <v>3496</v>
+        <v>3693</v>
       </c>
       <c r="S14">
-        <v>6713</v>
+        <v>6302</v>
       </c>
       <c r="T14">
-        <v>4919</v>
+        <v>5119</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1235,58 +1235,58 @@
         <v>22</v>
       </c>
       <c r="C15">
-        <v>9.450742861551239</v>
+        <v>10.84308413573076</v>
       </c>
       <c r="D15">
-        <v>7.761568464786918</v>
+        <v>7.87548197466154</v>
       </c>
       <c r="E15">
-        <v>5.368707085743243</v>
+        <v>5.36976564720918</v>
       </c>
       <c r="F15">
-        <v>7.479261267249409</v>
+        <v>8.317253330042908</v>
       </c>
       <c r="G15">
-        <v>4.626079811135351</v>
+        <v>4.894333719107897</v>
       </c>
       <c r="H15">
-        <v>7.221322245633723</v>
+        <v>6.814520510230215</v>
       </c>
       <c r="I15">
-        <v>534.2397413808009</v>
+        <v>700.091930016605</v>
       </c>
       <c r="J15">
-        <v>953.7461530266453</v>
+        <v>1026.9891910142</v>
       </c>
       <c r="K15">
-        <v>1424.020405098273</v>
+        <v>1462.371669403635</v>
       </c>
       <c r="L15">
-        <v>1012.358179894843</v>
+        <v>1023.379441767263</v>
       </c>
       <c r="M15">
-        <v>1069.31212857963</v>
+        <v>1035.563169361845</v>
       </c>
       <c r="N15">
-        <v>1011.837046269989</v>
+        <v>1017.718107447367</v>
       </c>
       <c r="O15">
-        <v>2089</v>
+        <v>2386</v>
       </c>
       <c r="P15">
-        <v>4541</v>
+        <v>4819</v>
       </c>
       <c r="Q15">
-        <v>9802</v>
+        <v>10064</v>
       </c>
       <c r="R15">
-        <v>5002</v>
+        <v>4547</v>
       </c>
       <c r="S15">
-        <v>8542</v>
+        <v>7819</v>
       </c>
       <c r="T15">
-        <v>5178</v>
+        <v>5519</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1297,58 +1297,58 @@
         <v>23</v>
       </c>
       <c r="C16">
-        <v>9.216305924793735</v>
+        <v>8.621361058125203</v>
       </c>
       <c r="D16">
-        <v>7.865444290914763</v>
+        <v>8.016061436481927</v>
       </c>
       <c r="E16">
-        <v>5.877859337305247</v>
+        <v>5.566549328913562</v>
       </c>
       <c r="F16">
-        <v>7.856424764128915</v>
+        <v>9.905887903036367</v>
       </c>
       <c r="G16">
-        <v>4.335201973682901</v>
+        <v>4.370096352707268</v>
       </c>
       <c r="H16">
-        <v>7.608396071897775</v>
+        <v>7.414962991934948</v>
       </c>
       <c r="I16">
-        <v>725.9904239304744</v>
+        <v>762.8785268241433</v>
       </c>
       <c r="J16">
-        <v>1164.665343914294</v>
+        <v>1152.478036523094</v>
       </c>
       <c r="K16">
-        <v>1309.669929351476</v>
+        <v>1373.313917627494</v>
       </c>
       <c r="L16">
-        <v>911.4025597242281</v>
+        <v>1011.6426010056</v>
       </c>
       <c r="M16">
-        <v>1616.319902792684</v>
+        <v>1531.650414576749</v>
       </c>
       <c r="N16">
-        <v>1338.253148729716</v>
+        <v>1355.596482555742</v>
       </c>
       <c r="O16">
-        <v>2911</v>
+        <v>3270</v>
       </c>
       <c r="P16">
-        <v>5472</v>
+        <v>5313</v>
       </c>
       <c r="Q16">
-        <v>8234</v>
+        <v>9117</v>
       </c>
       <c r="R16">
-        <v>4287</v>
+        <v>3774</v>
       </c>
       <c r="S16">
-        <v>13778</v>
+        <v>12952</v>
       </c>
       <c r="T16">
-        <v>6500</v>
+        <v>6756</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1359,58 +1359,58 @@
         <v>24</v>
       </c>
       <c r="C17">
-        <v>8.537260849207151</v>
+        <v>8.627687866647529</v>
       </c>
       <c r="D17">
-        <v>9.99786936891905</v>
+        <v>10.1079362219818</v>
       </c>
       <c r="E17">
-        <v>7.962393528941056</v>
+        <v>7.777601191639596</v>
       </c>
       <c r="F17">
-        <v>7.625117453293022</v>
+        <v>7.4291924489001</v>
       </c>
       <c r="G17">
-        <v>2.972187957350275</v>
+        <v>3.007612471751877</v>
       </c>
       <c r="H17">
-        <v>9.8622397315021</v>
+        <v>9.758198279460849</v>
       </c>
       <c r="I17">
-        <v>668.1110340916397</v>
+        <v>810.8322475310476</v>
       </c>
       <c r="J17">
-        <v>1182.010426014985</v>
+        <v>1187.911610038285</v>
       </c>
       <c r="K17">
-        <v>821.5656027411932</v>
+        <v>861.8493946856377</v>
       </c>
       <c r="L17">
-        <v>829.0644147840685</v>
+        <v>844.1493450495002</v>
       </c>
       <c r="M17">
-        <v>1936.548975784792</v>
+        <v>1869.209381342818</v>
       </c>
       <c r="N17">
-        <v>935.6626024664954</v>
+        <v>950.349366685418</v>
       </c>
       <c r="O17">
-        <v>2892</v>
+        <v>3473</v>
       </c>
       <c r="P17">
-        <v>4369</v>
+        <v>4343</v>
       </c>
       <c r="Q17">
-        <v>3813</v>
+        <v>4095</v>
       </c>
       <c r="R17">
-        <v>4018</v>
+        <v>4199</v>
       </c>
       <c r="S17">
-        <v>24078</v>
+        <v>22967</v>
       </c>
       <c r="T17">
-        <v>3506</v>
+        <v>3599</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1421,58 +1421,58 @@
         <v>25</v>
       </c>
       <c r="C18">
-        <v>9.430283682774808</v>
+        <v>9.319126878217041</v>
       </c>
       <c r="D18">
-        <v>9.654317684306696</v>
+        <v>9.78336278747439</v>
       </c>
       <c r="E18">
-        <v>8.466574772253473</v>
+        <v>7.581882829355068</v>
       </c>
       <c r="F18">
-        <v>8.119628863739974</v>
+        <v>7.387722084415089</v>
       </c>
       <c r="G18">
-        <v>1.975728240111508</v>
+        <v>2.10050696983552</v>
       </c>
       <c r="H18">
-        <v>10.0648898858246</v>
+        <v>9.79521369422204</v>
       </c>
       <c r="I18">
-        <v>780.8686521220294</v>
+        <v>860.4310053986025</v>
       </c>
       <c r="J18">
-        <v>697.2715795616332</v>
+        <v>663.1743083887335</v>
       </c>
       <c r="K18">
-        <v>1266.27787090428</v>
+        <v>1218.69581030835</v>
       </c>
       <c r="L18">
-        <v>740.8930984291864</v>
+        <v>649.1194804184743</v>
       </c>
       <c r="M18">
-        <v>1873.047269635433</v>
+        <v>1954.963342866529</v>
       </c>
       <c r="N18">
-        <v>794.7419178029588</v>
+        <v>816.9177904794797</v>
       </c>
       <c r="O18">
-        <v>3060</v>
+        <v>3412</v>
       </c>
       <c r="P18">
-        <v>2669</v>
+        <v>2505</v>
       </c>
       <c r="Q18">
-        <v>5527</v>
+        <v>5940</v>
       </c>
       <c r="R18">
-        <v>3372</v>
+        <v>3247</v>
       </c>
       <c r="S18">
-        <v>35034</v>
+        <v>34394</v>
       </c>
       <c r="T18">
-        <v>2918</v>
+        <v>3082</v>
       </c>
     </row>
   </sheetData>
